--- a/examples/example-INVENTORY.xlsx
+++ b/examples/example-INVENTORY.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="988">
   <si>
     <t>SPCoast Part Inventory</t>
   </si>
@@ -894,7 +894,7 @@
     </r>
   </si>
   <si>
-    <t>Round Button Direct Insert SPST 6mm 5.5mm 50mA 100MΩ 100 000 Times 12V 250gf Plugin Tactile Switch</t>
+    <t>Round Button Direct Insert SPST 6mm 5.5mm 50mA 100M 100 000 Times 12V 250gf Plugin Tactile Switch</t>
   </si>
   <si>
     <t>6x6x6mm_PTH</t>
@@ -979,7 +979,7 @@
     </r>
   </si>
   <si>
-    <t>Round Button Standing paste SPST 6mm 6mm 6mm 50mA 100MΩ 100 000 Times 12V 250gf SMD Tactile Switch</t>
+    <t>Round Button Standing paste SPST 6mm 6mm 6mm 50mA 100M 100 000 Times 12V 250gf SMD Tactile Switch</t>
   </si>
   <si>
     <t>6x6x6mm_SMD</t>
@@ -4357,7 +4357,7 @@
     </r>
   </si>
   <si>
-    <t>60V 300mA 1.5Ω@10V 500mA 200mW 1.5V@250uA N-Channel SOT-23 MOSFETs</t>
+    <t>60V 300mA 1.5@10V 500mA 200mW 1.5V@250uA N-Channel SOT-23 MOSFETs</t>
   </si>
   <si>
     <t>2N7002</t>
@@ -4433,7 +4433,7 @@
     </r>
   </si>
   <si>
-    <t>30V 10A 14mΩ@10V00mA N-Channel SO-8 MOSFETs</t>
+    <t>30V 10A 14m@10V00mA N-Channel SO-8 MOSFETs</t>
   </si>
   <si>
     <t>DMN4468</t>
@@ -4515,7 +4515,7 @@
     </r>
   </si>
   <si>
-    <t>20V 2.3A 95mΩ 1V 1 Piece P-Channel SOT-23 MOSFET</t>
+    <t>20V 2.3A 95m 1V 1 Piece P-Channel SOT-23 MOSFET</t>
   </si>
   <si>
     <t>2301V</t>
@@ -4556,27 +4556,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_200Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>200Ω 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>200Ω RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>200 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>200 RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -4594,10 +4594,10 @@
     <t>RES</t>
   </si>
   <si>
-    <t xml:space="preserve">200Ω 100mW  75V ±100ppm/℃ ±5% 0603 </t>
-  </si>
-  <si>
-    <t>200Ω</t>
+    <t xml:space="preserve">200 100mW  75V ±100ppm/℃ ±5% 0603 </t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>thick film</t>
@@ -4644,27 +4644,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_220Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>220Ω 1% thick film 150V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>220Ω RES 1% thick film 150V 100mW</t>
+      <t>RES_1%_100mW_0603_220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>220 1% thick film 150V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>220 RES 1% thick film 150V 100mW</t>
     </r>
   </si>
   <si>
@@ -4685,14 +4685,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_220Ω</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">220Ω 100mW s 150V ±100ppm/℃ ±1% 0603 </t>
-  </si>
-  <si>
-    <t>220Ω</t>
+      <t>RES_1%_100mW_0603_220</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">220 100mW s 150V ±100ppm/℃ ±1% 0603 </t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>1%</t>
@@ -4724,27 +4724,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_220Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>220Ω 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>220Ω RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>220 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>220 RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -4765,11 +4765,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_220Ω</t>
-    </r>
-  </si>
-  <si>
-    <t>220Ω 100mW  75V ±100ppm/℃ ±5% 0603</t>
+      <t>RES_5%_100mW_0603_220</t>
+    </r>
+  </si>
+  <si>
+    <t>220 100mW  75V ±100ppm/℃ ±5% 0603</t>
   </si>
   <si>
     <t>C1226</t>
@@ -4798,27 +4798,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_330Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>330Ω 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>330Ω RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_330</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>330 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>330 RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -4839,14 +4839,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_330Ω</t>
-    </r>
-  </si>
-  <si>
-    <t>330Ω 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>330Ω</t>
+      <t>RES_5%_100mW_0603_330</t>
+    </r>
+  </si>
+  <si>
+    <t>330 100mW  75V ±100ppm/℃ ±5% 0603</t>
   </si>
   <si>
     <t>C25231</t>
@@ -4872,27 +4869,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_470Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>470Ω 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>470Ω RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_470</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>470 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>470 RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -4913,14 +4910,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_470Ω</t>
-    </r>
-  </si>
-  <si>
-    <t>470Ω 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>470Ω</t>
+      <t>RES_5%_100mW_0603_470</t>
+    </r>
+  </si>
+  <si>
+    <t>470 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>470</t>
   </si>
   <si>
     <t>C25241</t>
@@ -4946,27 +4943,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_1kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_1k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -4987,14 +4984,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_1kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1kΩ 100mW  75V ±100ppm/℃ ±5% 0603 </t>
-  </si>
-  <si>
-    <t>1kΩ</t>
+      <t>RES_5%_100mW_0603_1k</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1k 100mW  75V ±100ppm/℃ ±5% 0603 </t>
+  </si>
+  <si>
+    <t>1k</t>
   </si>
   <si>
     <t>C25585</t>
@@ -5020,27 +5017,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_2.2kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2.2kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2.2kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_2.2k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2.2k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2.2k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5061,14 +5058,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_2.2kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>2.2kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>2.2kΩ</t>
+      <t>RES_5%_100mW_0603_2.2k</t>
+    </r>
+  </si>
+  <si>
+    <t>2.2k 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>2.2k</t>
   </si>
   <si>
     <t>C25992</t>
@@ -5094,27 +5091,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_3.3kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3.3kΩ 1% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3.3kΩ RES 1% thick film 75V 100mW</t>
+      <t>RES_1%_100mW_0603_3.3k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3.3k 1% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3.3k RES 1% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5135,14 +5132,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_3.3kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3kΩ 100mW s 75V ±100ppm/℃ ±1% 0603 </t>
-  </si>
-  <si>
-    <t>3.3kΩ</t>
+      <t>RES_1%_100mW_0603_3.3k</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3k 100mW s 75V ±100ppm/℃ ±1% 0603 </t>
+  </si>
+  <si>
+    <t>3.3k</t>
   </si>
   <si>
     <t>C2907023</t>
@@ -5168,27 +5165,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_3.3kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3.3kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3.3kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_3.3k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3.3k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3.3k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5209,11 +5206,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_3.3kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>3.3kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
+      <t>RES_5%_100mW_0603_3.3k</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3k 100mW  75V ±100ppm/℃ ±5% 0603</t>
   </si>
   <si>
     <t>C25995</t>
@@ -5239,27 +5236,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_4.7kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4.7kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4.7kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_4.7k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4.7k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4.7k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5280,14 +5277,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_4.7kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>4.7kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>4.7kΩ</t>
+      <t>RES_5%_100mW_0603_4.7k</t>
+    </r>
+  </si>
+  <si>
+    <t>4.7k 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>4.7k</t>
   </si>
   <si>
     <t>C25999</t>
@@ -5313,27 +5310,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_5.6kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5.6kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5.6kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_5.6k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5.6k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5.6k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5354,14 +5351,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_5.6kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>5.6kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>5.6kΩ</t>
+      <t>RES_5%_100mW_0603_5.6k</t>
+    </r>
+  </si>
+  <si>
+    <t>5.6k 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>5.6k</t>
   </si>
   <si>
     <t>C26001</t>
@@ -5387,27 +5384,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_10kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>10kΩ 5% thick film 150V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>10kΩ RES 5% thick film 150V 100mW</t>
+      <t>RES_5%_100mW_0603_10k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10k 5% thick film 150V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10k RES 5% thick film 150V 100mW</t>
     </r>
   </si>
   <si>
@@ -5428,14 +5425,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_10kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10kΩ 100mW s 150V ±100ppm/℃ ±5% 0603 </t>
-  </si>
-  <si>
-    <t>10kΩ</t>
+      <t>RES_5%_100mW_0603_10k</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10k 100mW s 150V ±100ppm/℃ ±5% 0603 </t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
   <si>
     <t>C4118381</t>
@@ -5461,17 +5458,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>10kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>10kΩ RES 5% thick film 75V 100mW</t>
+      <t>10k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5486,7 +5483,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10kΩ 100mW  75V ±100ppm/℃ ±5% 0603 </t>
+    <t xml:space="preserve">10k 100mW  75V ±100ppm/℃ ±5% 0603 </t>
   </si>
   <si>
     <t>C2930027</t>
@@ -5517,7 +5514,7 @@
     </r>
   </si>
   <si>
-    <t>10kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
+    <t>10k 100mW  75V ±100ppm/℃ ±5% 0603</t>
   </si>
   <si>
     <t>C15401</t>
@@ -5532,27 +5529,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_22kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>22kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>22kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_22k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>22k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>22k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5573,14 +5570,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_22kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>22kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>22kΩ</t>
+      <t>RES_5%_100mW_0603_22k</t>
+    </r>
+  </si>
+  <si>
+    <t>22k 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>22k</t>
   </si>
   <si>
     <t>C23344</t>
@@ -5606,27 +5603,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_100kΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>100kΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>100kΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_100k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>100k 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>100k RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5647,14 +5644,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_100kΩ</t>
-    </r>
-  </si>
-  <si>
-    <t>100kΩ 100mW  75V ±100ppm/℃ ±5% 0603</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
+      <t>RES_5%_100mW_0603_100k</t>
+    </r>
+  </si>
+  <si>
+    <t>100k 100mW  75V ±100ppm/℃ ±5% 0603</t>
+  </si>
+  <si>
+    <t>100k</t>
   </si>
   <si>
     <t>C15458</t>
@@ -5680,27 +5677,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_1MΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1MΩ 1% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1MΩ RES 1% thick film 75V 100mW</t>
+      <t>RES_1%_100mW_0603_1M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1M 1% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1M RES 1% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5721,14 +5718,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_1%_100mW_0603_1MΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0MΩ 100mW  75V ±100ppm/℃ ±1% 0603 </t>
-  </si>
-  <si>
-    <t>1MΩ</t>
+      <t>RES_1%_100mW_0603_1M</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0M 100mW  75V ±100ppm/℃ ±1% 0603 </t>
+  </si>
+  <si>
+    <t>1M</t>
   </si>
   <si>
     <t>C22935</t>
@@ -5754,27 +5751,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_1MΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1MΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1MΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_1M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1M 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1M RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5795,11 +5792,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_1MΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0MΩ 100mW  75V ±100ppm/℃ ±5% 0603 </t>
+      <t>RES_5%_100mW_0603_1M</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0M 100mW  75V ±100ppm/℃ ±5% 0603 </t>
   </si>
   <si>
     <t>C26098</t>
@@ -5825,27 +5822,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_2.2MΩ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2.2MΩ 5% thick film 75V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2.2MΩ RES 5% thick film 75V 100mW</t>
+      <t>RES_5%_100mW_0603_2.2M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2.2M 5% thick film 75V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2.2M RES 5% thick film 75V 100mW</t>
     </r>
   </si>
   <si>
@@ -5866,14 +5863,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>RES_5%_100mW_0603_2.2MΩ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2MΩ 100mW  75V ±100ppm/℃ ±5% 0603 </t>
-  </si>
-  <si>
-    <t>2.2MΩ</t>
+      <t>RES_5%_100mW_0603_2.2M</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2M 100mW  75V ±100ppm/℃ ±5% 0603 </t>
+  </si>
+  <si>
+    <t>2.2M</t>
   </si>
   <si>
     <t>C18679</t>
@@ -5899,17 +5896,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>2.2MΩ 5% thick film 50V 100mW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2.2MΩ RES 5% thick film 50V 100mW</t>
+      <t>2.2M 5% thick film 50V 100mW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2.2M RES 5% thick film 50V 100mW</t>
     </r>
   </si>
   <si>
@@ -5924,7 +5921,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2.2MΩ 100mW  50V ±250ppm/℃ ±5% 0603 </t>
+    <t xml:space="preserve">2.2M 100mW  50V ±250ppm/℃ ±5% 0603 </t>
   </si>
   <si>
     <t>C403986</t>
@@ -15598,7 +15595,7 @@
         <v>8</v>
       </c>
       <c r="J82" t="s" s="30">
-        <v>838</v>
+        <v>636</v>
       </c>
       <c r="K82" t="s" s="30">
         <v>800</v>
@@ -15627,13 +15624,13 @@
         <v>325</v>
       </c>
       <c r="AA82" t="s" s="30">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AB82" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC82" t="s" s="30">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AD82" t="b" s="35">
         <v>0</v>
@@ -15673,41 +15670,41 @@
         <v>2.5</v>
       </c>
       <c r="AP82" t="s" s="30">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" ht="18.9" customHeight="1">
       <c r="B83" t="s" s="26">
         <f>IF(OR(AI83="ACTIVE",AI83="AVAILABLE",AI83="reserve",AI83="DNP"),G83,"")</f>
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C83" t="s" s="27">
         <f>$J83&amp;IF($F83="LED"," LED","")&amp;IF($L83="",""," ")&amp;$L83&amp;IF($K83="",""," ")&amp;$K83&amp;IF($M83="",""," ")&amp;$M83&amp;IF($N83="",""," ")&amp;$N83&amp;IF($O83="",""," ")&amp;$O83&amp;IF($R83="",""," ")&amp;$R83&amp;IF($R83="","","mcd")</f>
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D83" t="s" s="28">
         <f>$J83&amp;" "&amp;F83&amp;IF($L83="",""," ")&amp;$L83&amp;IF($K83="",""," ")&amp;$K83&amp;IF($M83="",""," ")&amp;$M83&amp;IF($N83="",""," ")&amp;$N83&amp;IF($O83="",""," ")&amp;$O83&amp;IF($R83="",""," ")&amp;$R83&amp;IF($R83="","","mcd")</f>
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E83" t="s" s="29">
         <f>IF(ISBLANK(AA83),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA83,$AA83))</f>
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F83" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G83" t="s" s="67">
         <f>F83&amp;"_"&amp;L83&amp;"_"&amp;O83&amp;"_"&amp;Z83&amp;"_"&amp;J83</f>
+        <v>845</v>
+      </c>
+      <c r="H83" t="s" s="32">
         <v>846</v>
-      </c>
-      <c r="H83" t="s" s="32">
-        <v>847</v>
       </c>
       <c r="I83" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J83" t="s" s="30">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K83" t="s" s="30">
         <v>800</v>
@@ -15736,13 +15733,13 @@
         <v>325</v>
       </c>
       <c r="AA83" t="s" s="55">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AB83" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC83" t="s" s="30">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AD83" t="b" s="35">
         <v>0</v>
@@ -15782,41 +15779,41 @@
         <v>2.5</v>
       </c>
       <c r="AP83" t="s" s="30">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="84" ht="18.4" customHeight="1">
       <c r="B84" t="s" s="26">
         <f>IF(OR(AI84="ACTIVE",AI84="AVAILABLE",AI84="reserve",AI84="DNP"),G84,"")</f>
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C84" t="s" s="27">
         <f>$J84&amp;IF($F84="LED"," LED","")&amp;IF($L84="",""," ")&amp;$L84&amp;IF($K84="",""," ")&amp;$K84&amp;IF($M84="",""," ")&amp;$M84&amp;IF($N84="",""," ")&amp;$N84&amp;IF($O84="",""," ")&amp;$O84&amp;IF($R84="",""," ")&amp;$R84&amp;IF($R84="","","mcd")</f>
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D84" t="s" s="28">
         <f>$J84&amp;" "&amp;F84&amp;IF($L84="",""," ")&amp;$L84&amp;IF($K84="",""," ")&amp;$K84&amp;IF($M84="",""," ")&amp;$M84&amp;IF($N84="",""," ")&amp;$N84&amp;IF($O84="",""," ")&amp;$O84&amp;IF($R84="",""," ")&amp;$R84&amp;IF($R84="","","mcd")</f>
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E84" t="s" s="29">
         <f>IF(ISBLANK(AA84),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA84,$AA84))</f>
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F84" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G84" t="s" s="67">
         <f>F84&amp;"_"&amp;L84&amp;"_"&amp;O84&amp;"_"&amp;Z84&amp;"_"&amp;J84</f>
+        <v>855</v>
+      </c>
+      <c r="H84" t="s" s="32">
         <v>856</v>
-      </c>
-      <c r="H84" t="s" s="32">
-        <v>857</v>
       </c>
       <c r="I84" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J84" t="s" s="30">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K84" t="s" s="30">
         <v>800</v>
@@ -15845,13 +15842,13 @@
         <v>325</v>
       </c>
       <c r="AA84" t="s" s="30">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AB84" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC84" t="s" s="30">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AD84" t="b" s="35">
         <v>0</v>
@@ -15891,41 +15888,41 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="s" s="30">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" ht="19.3" customHeight="1">
       <c r="B85" t="s" s="26">
         <f>IF(OR(AI85="ACTIVE",AI85="AVAILABLE",AI85="reserve",AI85="DNP"),G85,"")</f>
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C85" t="s" s="27">
         <f>$J85&amp;IF($F85="LED"," LED","")&amp;IF($L85="",""," ")&amp;$L85&amp;IF($K85="",""," ")&amp;$K85&amp;IF($M85="",""," ")&amp;$M85&amp;IF($N85="",""," ")&amp;$N85&amp;IF($O85="",""," ")&amp;$O85&amp;IF($R85="",""," ")&amp;$R85&amp;IF($R85="","","mcd")</f>
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D85" t="s" s="28">
         <f>$J85&amp;" "&amp;F85&amp;IF($L85="",""," ")&amp;$L85&amp;IF($K85="",""," ")&amp;$K85&amp;IF($M85="",""," ")&amp;$M85&amp;IF($N85="",""," ")&amp;$N85&amp;IF($O85="",""," ")&amp;$O85&amp;IF($R85="",""," ")&amp;$R85&amp;IF($R85="","","mcd")</f>
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E85" t="s" s="29">
         <f>IF(ISBLANK(AA85),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA85,$AA85))</f>
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F85" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G85" t="s" s="67">
         <f>F85&amp;"_"&amp;L85&amp;"_"&amp;O85&amp;"_"&amp;Z85&amp;"_"&amp;J85</f>
+        <v>865</v>
+      </c>
+      <c r="H85" t="s" s="32">
         <v>866</v>
-      </c>
-      <c r="H85" t="s" s="32">
-        <v>867</v>
       </c>
       <c r="I85" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J85" t="s" s="30">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K85" t="s" s="30">
         <v>800</v>
@@ -15954,13 +15951,13 @@
         <v>325</v>
       </c>
       <c r="AA85" t="s" s="30">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AB85" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC85" t="s" s="31">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AD85" t="b" s="35">
         <v>0</v>
@@ -16000,41 +15997,41 @@
         <v>2.5</v>
       </c>
       <c r="AP85" t="s" s="30">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="86" ht="18.9" customHeight="1">
       <c r="B86" t="s" s="26">
         <f>IF(OR(AI86="ACTIVE",AI86="AVAILABLE",AI86="reserve",AI86="DNP"),G86,"")</f>
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C86" t="s" s="27">
         <f>$J86&amp;IF($F86="LED"," LED","")&amp;IF($L86="",""," ")&amp;$L86&amp;IF($K86="",""," ")&amp;$K86&amp;IF($M86="",""," ")&amp;$M86&amp;IF($N86="",""," ")&amp;$N86&amp;IF($O86="",""," ")&amp;$O86&amp;IF($R86="",""," ")&amp;$R86&amp;IF($R86="","","mcd")</f>
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D86" t="s" s="28">
         <f>$J86&amp;" "&amp;F86&amp;IF($L86="",""," ")&amp;$L86&amp;IF($K86="",""," ")&amp;$K86&amp;IF($M86="",""," ")&amp;$M86&amp;IF($N86="",""," ")&amp;$N86&amp;IF($O86="",""," ")&amp;$O86&amp;IF($R86="",""," ")&amp;$R86&amp;IF($R86="","","mcd")</f>
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E86" t="s" s="29">
         <f>IF(ISBLANK(AA86),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA86,$AA86))</f>
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F86" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G86" t="s" s="67">
         <f>F86&amp;"_"&amp;L86&amp;"_"&amp;O86&amp;"_"&amp;Z86&amp;"_"&amp;J86</f>
+        <v>875</v>
+      </c>
+      <c r="H86" t="s" s="32">
         <v>876</v>
-      </c>
-      <c r="H86" t="s" s="32">
-        <v>877</v>
       </c>
       <c r="I86" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J86" t="s" s="30">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K86" t="s" s="30">
         <v>800</v>
@@ -16063,13 +16060,13 @@
         <v>325</v>
       </c>
       <c r="AA86" t="s" s="30">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AB86" t="s" s="31">
         <v>805</v>
       </c>
       <c r="AC86" t="s" s="30">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AD86" t="b" s="35">
         <v>0</v>
@@ -16109,41 +16106,41 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="s" s="30">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87" ht="19.3" customHeight="1">
       <c r="B87" t="s" s="26">
         <f>IF(OR(AI87="ACTIVE",AI87="AVAILABLE",AI87="reserve",AI87="DNP"),G87,"")</f>
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C87" t="s" s="27">
         <f>$J87&amp;IF($F87="LED"," LED","")&amp;IF($L87="",""," ")&amp;$L87&amp;IF($K87="",""," ")&amp;$K87&amp;IF($M87="",""," ")&amp;$M87&amp;IF($N87="",""," ")&amp;$N87&amp;IF($O87="",""," ")&amp;$O87&amp;IF($R87="",""," ")&amp;$R87&amp;IF($R87="","","mcd")</f>
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D87" t="s" s="28">
         <f>$J87&amp;" "&amp;F87&amp;IF($L87="",""," ")&amp;$L87&amp;IF($K87="",""," ")&amp;$K87&amp;IF($M87="",""," ")&amp;$M87&amp;IF($N87="",""," ")&amp;$N87&amp;IF($O87="",""," ")&amp;$O87&amp;IF($R87="",""," ")&amp;$R87&amp;IF($R87="","","mcd")</f>
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E87" t="s" s="29">
         <f>IF(ISBLANK(AA87),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA87,$AA87))</f>
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F87" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G87" t="s" s="67">
         <f>F87&amp;"_"&amp;L87&amp;"_"&amp;O87&amp;"_"&amp;Z87&amp;"_"&amp;J87</f>
+        <v>885</v>
+      </c>
+      <c r="H87" t="s" s="32">
         <v>886</v>
-      </c>
-      <c r="H87" t="s" s="32">
-        <v>887</v>
       </c>
       <c r="I87" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J87" t="s" s="30">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K87" t="s" s="30">
         <v>800</v>
@@ -16172,13 +16169,13 @@
         <v>325</v>
       </c>
       <c r="AA87" t="s" s="30">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AB87" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC87" t="s" s="31">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AD87" t="b" s="35">
         <v>0</v>
@@ -16218,41 +16215,41 @@
         <v>2.5</v>
       </c>
       <c r="AP87" t="s" s="30">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="88" ht="19.3" customHeight="1">
       <c r="B88" t="s" s="26">
         <f>IF(OR(AI88="ACTIVE",AI88="AVAILABLE",AI88="reserve",AI88="DNP"),G88,"")</f>
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C88" t="s" s="27">
         <f>$J88&amp;IF($F88="LED"," LED","")&amp;IF($L88="",""," ")&amp;$L88&amp;IF($K88="",""," ")&amp;$K88&amp;IF($M88="",""," ")&amp;$M88&amp;IF($N88="",""," ")&amp;$N88&amp;IF($O88="",""," ")&amp;$O88&amp;IF($R88="",""," ")&amp;$R88&amp;IF($R88="","","mcd")</f>
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D88" t="s" s="28">
         <f>$J88&amp;" "&amp;F88&amp;IF($L88="",""," ")&amp;$L88&amp;IF($K88="",""," ")&amp;$K88&amp;IF($M88="",""," ")&amp;$M88&amp;IF($N88="",""," ")&amp;$N88&amp;IF($O88="",""," ")&amp;$O88&amp;IF($R88="",""," ")&amp;$R88&amp;IF($R88="","","mcd")</f>
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E88" t="s" s="29">
         <f>IF(ISBLANK(AA88),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA88,$AA88))</f>
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F88" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G88" t="s" s="67">
         <f>F88&amp;"_"&amp;L88&amp;"_"&amp;O88&amp;"_"&amp;Z88&amp;"_"&amp;J88</f>
+        <v>894</v>
+      </c>
+      <c r="H88" t="s" s="32">
         <v>895</v>
-      </c>
-      <c r="H88" t="s" s="32">
-        <v>896</v>
       </c>
       <c r="I88" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J88" t="s" s="30">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K88" t="s" s="30">
         <v>800</v>
@@ -16281,13 +16278,13 @@
         <v>325</v>
       </c>
       <c r="AA88" t="s" s="55">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AB88" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC88" t="s" s="31">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AD88" t="b" s="35">
         <v>0</v>
@@ -16327,41 +16324,41 @@
         <v>2.5</v>
       </c>
       <c r="AP88" t="s" s="30">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="89" ht="19.3" customHeight="1">
       <c r="B89" t="s" s="26">
         <f>IF(OR(AI89="ACTIVE",AI89="AVAILABLE",AI89="reserve",AI89="DNP"),G89,"")</f>
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C89" t="s" s="27">
         <f>$J89&amp;IF($F89="LED"," LED","")&amp;IF($L89="",""," ")&amp;$L89&amp;IF($K89="",""," ")&amp;$K89&amp;IF($M89="",""," ")&amp;$M89&amp;IF($N89="",""," ")&amp;$N89&amp;IF($O89="",""," ")&amp;$O89&amp;IF($R89="",""," ")&amp;$R89&amp;IF($R89="","","mcd")</f>
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D89" t="s" s="28">
         <f>$J89&amp;" "&amp;F89&amp;IF($L89="",""," ")&amp;$L89&amp;IF($K89="",""," ")&amp;$K89&amp;IF($M89="",""," ")&amp;$M89&amp;IF($N89="",""," ")&amp;$N89&amp;IF($O89="",""," ")&amp;$O89&amp;IF($R89="",""," ")&amp;$R89&amp;IF($R89="","","mcd")</f>
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E89" t="s" s="29">
         <f>IF(ISBLANK(AA89),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA89,$AA89))</f>
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F89" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G89" t="s" s="67">
         <f>F89&amp;"_"&amp;L89&amp;"_"&amp;O89&amp;"_"&amp;Z89&amp;"_"&amp;J89</f>
+        <v>904</v>
+      </c>
+      <c r="H89" t="s" s="32">
         <v>905</v>
-      </c>
-      <c r="H89" t="s" s="32">
-        <v>906</v>
       </c>
       <c r="I89" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J89" t="s" s="30">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K89" t="s" s="30">
         <v>800</v>
@@ -16390,13 +16387,13 @@
         <v>325</v>
       </c>
       <c r="AA89" t="s" s="55">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AB89" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC89" t="s" s="31">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AD89" t="b" s="35">
         <v>0</v>
@@ -16436,41 +16433,41 @@
         <v>2.5</v>
       </c>
       <c r="AP89" t="s" s="30">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" ht="18.9" customHeight="1">
       <c r="B90" t="s" s="26">
         <f>IF(OR(AI90="ACTIVE",AI90="AVAILABLE",AI90="reserve",AI90="DNP"),G90,"")</f>
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C90" t="s" s="27">
         <f>$J90&amp;IF($F90="LED"," LED","")&amp;IF($L90="",""," ")&amp;$L90&amp;IF($K90="",""," ")&amp;$K90&amp;IF($M90="",""," ")&amp;$M90&amp;IF($N90="",""," ")&amp;$N90&amp;IF($O90="",""," ")&amp;$O90&amp;IF($R90="",""," ")&amp;$R90&amp;IF($R90="","","mcd")</f>
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D90" t="s" s="28">
         <f>$J90&amp;" "&amp;F90&amp;IF($L90="",""," ")&amp;$L90&amp;IF($K90="",""," ")&amp;$K90&amp;IF($M90="",""," ")&amp;$M90&amp;IF($N90="",""," ")&amp;$N90&amp;IF($O90="",""," ")&amp;$O90&amp;IF($R90="",""," ")&amp;$R90&amp;IF($R90="","","mcd")</f>
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E90" t="s" s="29">
         <f>IF(ISBLANK(AA90),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA90,$AA90))</f>
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F90" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G90" t="s" s="67">
         <f>F90&amp;"_"&amp;L90&amp;"_"&amp;O90&amp;"_"&amp;Z90&amp;"_"&amp;J90</f>
+        <v>914</v>
+      </c>
+      <c r="H90" t="s" s="32">
         <v>915</v>
-      </c>
-      <c r="H90" t="s" s="32">
-        <v>916</v>
       </c>
       <c r="I90" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J90" t="s" s="30">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K90" t="s" s="30">
         <v>800</v>
@@ -16499,13 +16496,13 @@
         <v>325</v>
       </c>
       <c r="AA90" t="s" s="30">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AB90" t="s" s="31">
         <v>327</v>
       </c>
       <c r="AC90" t="s" s="30">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AD90" t="b" s="35">
         <v>0</v>
@@ -16545,41 +16542,41 @@
         <v>8.7102</v>
       </c>
       <c r="AP90" t="s" s="30">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91" ht="18.9" customHeight="1">
       <c r="B91" t="s" s="26">
         <f>IF(OR(AI91="ACTIVE",AI91="AVAILABLE",AI91="reserve",AI91="DNP"),G91,"")</f>
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C91" t="s" s="27">
         <f>$J91&amp;IF($F91="LED"," LED","")&amp;IF($L91="",""," ")&amp;$L91&amp;IF($K91="",""," ")&amp;$K91&amp;IF($M91="",""," ")&amp;$M91&amp;IF($N91="",""," ")&amp;$N91&amp;IF($O91="",""," ")&amp;$O91&amp;IF($R91="",""," ")&amp;$R91&amp;IF($R91="","","mcd")</f>
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D91" t="s" s="28">
         <f>$J91&amp;" "&amp;F91&amp;IF($L91="",""," ")&amp;$L91&amp;IF($K91="",""," ")&amp;$K91&amp;IF($M91="",""," ")&amp;$M91&amp;IF($N91="",""," ")&amp;$N91&amp;IF($O91="",""," ")&amp;$O91&amp;IF($R91="",""," ")&amp;$R91&amp;IF($R91="","","mcd")</f>
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E91" t="s" s="29">
         <f>IF(ISBLANK(AA91),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA91,$AA91))</f>
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F91" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G91" t="s" s="67">
         <f>F91&amp;"_"&amp;L91&amp;"_"&amp;O91&amp;"_"&amp;Z91&amp;"_"&amp;J91</f>
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H91" t="s" s="32">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I91" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J91" t="s" s="30">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K91" t="s" s="30">
         <v>800</v>
@@ -16608,13 +16605,13 @@
         <v>325</v>
       </c>
       <c r="AA91" t="s" s="30">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AB91" t="s" s="31">
         <v>805</v>
       </c>
       <c r="AC91" t="s" s="30">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AD91" t="b" s="35">
         <v>0</v>
@@ -16654,41 +16651,41 @@
         <v>2.5</v>
       </c>
       <c r="AP91" t="s" s="30">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="92" ht="18.9" customHeight="1">
       <c r="B92" t="s" s="26">
         <f>IF(OR(AI92="ACTIVE",AI92="AVAILABLE",AI92="reserve",AI92="DNP"),G92,"")</f>
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C92" t="s" s="27">
         <f>$J92&amp;IF($F92="LED"," LED","")&amp;IF($L92="",""," ")&amp;$L92&amp;IF($K92="",""," ")&amp;$K92&amp;IF($M92="",""," ")&amp;$M92&amp;IF($N92="",""," ")&amp;$N92&amp;IF($O92="",""," ")&amp;$O92&amp;IF($R92="",""," ")&amp;$R92&amp;IF($R92="","","mcd")</f>
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D92" t="s" s="28">
         <f>$J92&amp;" "&amp;F92&amp;IF($L92="",""," ")&amp;$L92&amp;IF($K92="",""," ")&amp;$K92&amp;IF($M92="",""," ")&amp;$M92&amp;IF($N92="",""," ")&amp;$N92&amp;IF($O92="",""," ")&amp;$O92&amp;IF($R92="",""," ")&amp;$R92&amp;IF($R92="","","mcd")</f>
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E92" t="s" s="29">
         <f>IF(ISBLANK(AA92),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA92,$AA92))</f>
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F92" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G92" t="s" s="67">
         <f>F92&amp;"_"&amp;L92&amp;"_"&amp;O92&amp;"_"&amp;Z92&amp;"_"&amp;J92</f>
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H92" t="s" s="32">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I92" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J92" t="s" s="30">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K92" t="s" s="30">
         <v>800</v>
@@ -16717,13 +16714,13 @@
         <v>325</v>
       </c>
       <c r="AA92" t="s" s="30">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AB92" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC92" t="s" s="30">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AD92" t="b" s="35">
         <v>0</v>
@@ -16763,41 +16760,41 @@
         <v>2.5</v>
       </c>
       <c r="AP92" t="s" s="30">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="93" ht="18.9" customHeight="1">
       <c r="B93" t="s" s="26">
         <f>IF(OR(AI93="ACTIVE",AI93="AVAILABLE",AI93="reserve",AI93="DNP"),G93,"")</f>
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C93" t="s" s="27">
         <f>$J93&amp;IF($F93="LED"," LED","")&amp;IF($L93="",""," ")&amp;$L93&amp;IF($K93="",""," ")&amp;$K93&amp;IF($M93="",""," ")&amp;$M93&amp;IF($N93="",""," ")&amp;$N93&amp;IF($O93="",""," ")&amp;$O93&amp;IF($R93="",""," ")&amp;$R93&amp;IF($R93="","","mcd")</f>
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D93" t="s" s="28">
         <f>$J93&amp;" "&amp;F93&amp;IF($L93="",""," ")&amp;$L93&amp;IF($K93="",""," ")&amp;$K93&amp;IF($M93="",""," ")&amp;$M93&amp;IF($N93="",""," ")&amp;$N93&amp;IF($O93="",""," ")&amp;$O93&amp;IF($R93="",""," ")&amp;$R93&amp;IF($R93="","","mcd")</f>
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E93" t="s" s="29">
         <f>IF(ISBLANK(AA93),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA93,$AA93))</f>
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F93" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G93" t="s" s="67">
         <f>F93&amp;"_"&amp;L93&amp;"_"&amp;O93&amp;"_"&amp;Z93&amp;"_"&amp;J93</f>
+        <v>935</v>
+      </c>
+      <c r="H93" t="s" s="32">
         <v>936</v>
-      </c>
-      <c r="H93" t="s" s="32">
-        <v>937</v>
       </c>
       <c r="I93" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J93" t="s" s="30">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K93" t="s" s="30">
         <v>800</v>
@@ -16826,13 +16823,13 @@
         <v>325</v>
       </c>
       <c r="AA93" t="s" s="55">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AB93" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC93" t="s" s="30">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AD93" t="b" s="35">
         <v>0</v>
@@ -16872,41 +16869,41 @@
         <v>2.5</v>
       </c>
       <c r="AP93" t="s" s="30">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94" ht="18.9" customHeight="1">
       <c r="B94" t="s" s="26">
         <f>IF(OR(AI94="ACTIVE",AI94="AVAILABLE",AI94="reserve",AI94="DNP"),G94,"")</f>
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C94" t="s" s="27">
         <f>$J94&amp;IF($F94="LED"," LED","")&amp;IF($L94="",""," ")&amp;$L94&amp;IF($K94="",""," ")&amp;$K94&amp;IF($M94="",""," ")&amp;$M94&amp;IF($N94="",""," ")&amp;$N94&amp;IF($O94="",""," ")&amp;$O94&amp;IF($R94="",""," ")&amp;$R94&amp;IF($R94="","","mcd")</f>
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D94" t="s" s="28">
         <f>$J94&amp;" "&amp;F94&amp;IF($L94="",""," ")&amp;$L94&amp;IF($K94="",""," ")&amp;$K94&amp;IF($M94="",""," ")&amp;$M94&amp;IF($N94="",""," ")&amp;$N94&amp;IF($O94="",""," ")&amp;$O94&amp;IF($R94="",""," ")&amp;$R94&amp;IF($R94="","","mcd")</f>
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E94" t="s" s="29">
         <f>IF(ISBLANK(AA94),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA94,$AA94))</f>
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F94" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G94" t="s" s="67">
         <f>F94&amp;"_"&amp;L94&amp;"_"&amp;O94&amp;"_"&amp;Z94&amp;"_"&amp;J94</f>
+        <v>945</v>
+      </c>
+      <c r="H94" t="s" s="32">
         <v>946</v>
-      </c>
-      <c r="H94" t="s" s="32">
-        <v>947</v>
       </c>
       <c r="I94" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J94" t="s" s="30">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K94" t="s" s="30">
         <v>800</v>
@@ -16935,13 +16932,13 @@
         <v>325</v>
       </c>
       <c r="AA94" t="s" s="30">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AB94" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC94" t="s" s="30">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AD94" t="b" s="35">
         <v>0</v>
@@ -16981,41 +16978,41 @@
         <v>2.5</v>
       </c>
       <c r="AP94" t="s" s="30">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="95" ht="18.9" customHeight="1">
       <c r="B95" t="s" s="26">
         <f>IF(OR(AI95="ACTIVE",AI95="AVAILABLE",AI95="reserve",AI95="DNP"),G95,"")</f>
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C95" t="s" s="27">
         <f>$J95&amp;IF($F95="LED"," LED","")&amp;IF($L95="",""," ")&amp;$L95&amp;IF($K95="",""," ")&amp;$K95&amp;IF($M95="",""," ")&amp;$M95&amp;IF($N95="",""," ")&amp;$N95&amp;IF($O95="",""," ")&amp;$O95&amp;IF($R95="",""," ")&amp;$R95&amp;IF($R95="","","mcd")</f>
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D95" t="s" s="28">
         <f>$J95&amp;" "&amp;F95&amp;IF($L95="",""," ")&amp;$L95&amp;IF($K95="",""," ")&amp;$K95&amp;IF($M95="",""," ")&amp;$M95&amp;IF($N95="",""," ")&amp;$N95&amp;IF($O95="",""," ")&amp;$O95&amp;IF($R95="",""," ")&amp;$R95&amp;IF($R95="","","mcd")</f>
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E95" t="s" s="29">
         <f>IF(ISBLANK(AA95),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA95,$AA95))</f>
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F95" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G95" t="s" s="67">
         <f>F95&amp;"_"&amp;L95&amp;"_"&amp;O95&amp;"_"&amp;Z95&amp;"_"&amp;J95</f>
+        <v>955</v>
+      </c>
+      <c r="H95" t="s" s="32">
         <v>956</v>
-      </c>
-      <c r="H95" t="s" s="32">
-        <v>957</v>
       </c>
       <c r="I95" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J95" t="s" s="30">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K95" t="s" s="30">
         <v>800</v>
@@ -17044,13 +17041,13 @@
         <v>325</v>
       </c>
       <c r="AA95" t="s" s="30">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AB95" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC95" t="s" s="30">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AD95" t="b" s="35">
         <v>0</v>
@@ -17091,41 +17088,41 @@
         <v>7.4977</v>
       </c>
       <c r="AP95" t="s" s="30">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" ht="17.7" customHeight="1">
       <c r="B96" t="s" s="26">
         <f>IF(OR(AI96="ACTIVE",AI96="AVAILABLE",AI96="reserve",AI96="DNP"),G96,"")</f>
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C96" t="s" s="27">
         <f>$J96&amp;IF($F96="LED"," LED","")&amp;IF($L96="",""," ")&amp;$L96&amp;IF($K96="",""," ")&amp;$K96&amp;IF($M96="",""," ")&amp;$M96&amp;IF($N96="",""," ")&amp;$N96&amp;IF($O96="",""," ")&amp;$O96&amp;IF($R96="",""," ")&amp;$R96&amp;IF($R96="","","mcd")</f>
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D96" t="s" s="28">
         <f>$J96&amp;" "&amp;F96&amp;IF($L96="",""," ")&amp;$L96&amp;IF($K96="",""," ")&amp;$K96&amp;IF($M96="",""," ")&amp;$M96&amp;IF($N96="",""," ")&amp;$N96&amp;IF($O96="",""," ")&amp;$O96&amp;IF($R96="",""," ")&amp;$R96&amp;IF($R96="","","mcd")</f>
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E96" t="s" s="29">
         <f>IF(ISBLANK(AA96),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA96,$AA96))</f>
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F96" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G96" t="s" s="67">
         <f>F96&amp;"_"&amp;L96&amp;"_"&amp;O96&amp;"_"&amp;Z96&amp;"_"&amp;J96</f>
+        <v>965</v>
+      </c>
+      <c r="H96" t="s" s="32">
         <v>966</v>
-      </c>
-      <c r="H96" t="s" s="32">
-        <v>967</v>
       </c>
       <c r="I96" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J96" t="s" s="30">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K96" t="s" s="30">
         <v>800</v>
@@ -17154,13 +17151,13 @@
         <v>325</v>
       </c>
       <c r="AA96" t="s" s="55">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AB96" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC96" t="s" s="55">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AD96" t="b" s="35">
         <v>0</v>
@@ -17200,41 +17197,41 @@
         <v>2.5</v>
       </c>
       <c r="AP96" t="s" s="30">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="97" ht="18.9" customHeight="1">
       <c r="B97" t="s" s="26">
         <f>IF(OR(AI97="ACTIVE",AI97="AVAILABLE",AI97="reserve",AI97="DNP"),G97,"")</f>
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C97" t="s" s="27">
         <f>$J97&amp;IF($F97="LED"," LED","")&amp;IF($L97="",""," ")&amp;$L97&amp;IF($K97="",""," ")&amp;$K97&amp;IF($M97="",""," ")&amp;$M97&amp;IF($N97="",""," ")&amp;$N97&amp;IF($O97="",""," ")&amp;$O97&amp;IF($R97="",""," ")&amp;$R97&amp;IF($R97="","","mcd")</f>
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D97" t="s" s="28">
         <f>$J97&amp;" "&amp;F97&amp;IF($L97="",""," ")&amp;$L97&amp;IF($K97="",""," ")&amp;$K97&amp;IF($M97="",""," ")&amp;$M97&amp;IF($N97="",""," ")&amp;$N97&amp;IF($O97="",""," ")&amp;$O97&amp;IF($R97="",""," ")&amp;$R97&amp;IF($R97="","","mcd")</f>
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E97" t="s" s="29">
         <f>IF(ISBLANK(AA97),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA97,$AA97))</f>
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F97" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G97" t="s" s="67">
         <f>F97&amp;"_"&amp;L97&amp;"_"&amp;O97&amp;"_"&amp;Z97&amp;"_"&amp;J97</f>
+        <v>974</v>
+      </c>
+      <c r="H97" t="s" s="32">
         <v>975</v>
-      </c>
-      <c r="H97" t="s" s="32">
-        <v>976</v>
       </c>
       <c r="I97" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J97" t="s" s="30">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K97" t="s" s="30">
         <v>800</v>
@@ -17263,13 +17260,13 @@
         <v>325</v>
       </c>
       <c r="AA97" t="s" s="30">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AB97" t="s" s="31">
         <v>829</v>
       </c>
       <c r="AC97" t="s" s="30">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AD97" t="b" s="35">
         <v>0</v>
@@ -17309,41 +17306,41 @@
         <v>3</v>
       </c>
       <c r="AP97" t="s" s="30">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98" ht="18.9" customHeight="1">
       <c r="B98" t="s" s="26">
         <f>IF(OR(AI98="ACTIVE",AI98="AVAILABLE",AI98="reserve",AI98="DNP"),G98,"")</f>
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C98" t="s" s="27">
         <f>$J98&amp;IF($F98="LED"," LED","")&amp;IF($L98="",""," ")&amp;$L98&amp;IF($K98="",""," ")&amp;$K98&amp;IF($M98="",""," ")&amp;$M98&amp;IF($N98="",""," ")&amp;$N98&amp;IF($O98="",""," ")&amp;$O98&amp;IF($R98="",""," ")&amp;$R98&amp;IF($R98="","","mcd")</f>
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D98" t="s" s="28">
         <f>$J98&amp;" "&amp;F98&amp;IF($L98="",""," ")&amp;$L98&amp;IF($K98="",""," ")&amp;$K98&amp;IF($M98="",""," ")&amp;$M98&amp;IF($N98="",""," ")&amp;$N98&amp;IF($O98="",""," ")&amp;$O98&amp;IF($R98="",""," ")&amp;$R98&amp;IF($R98="","","mcd")</f>
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E98" t="s" s="29">
         <f>IF(ISBLANK(AA98),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA98,$AA98))</f>
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F98" t="s" s="30">
         <v>797</v>
       </c>
       <c r="G98" t="s" s="67">
         <f>F98&amp;"_"&amp;L98&amp;"_"&amp;O98&amp;"_"&amp;Z98&amp;"_"&amp;J98</f>
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H98" t="s" s="32">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I98" t="s" s="30">
         <v>8</v>
       </c>
       <c r="J98" t="s" s="30">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K98" t="s" s="30">
         <v>800</v>
@@ -17372,13 +17369,13 @@
         <v>325</v>
       </c>
       <c r="AA98" t="s" s="30">
+        <v>984</v>
+      </c>
+      <c r="AB98" t="s" s="31">
         <v>985</v>
       </c>
-      <c r="AB98" t="s" s="31">
+      <c r="AC98" t="s" s="30">
         <v>986</v>
-      </c>
-      <c r="AC98" t="s" s="30">
-        <v>987</v>
       </c>
       <c r="AD98" t="b" s="35">
         <v>0</v>
@@ -17418,41 +17415,41 @@
         <v>4</v>
       </c>
       <c r="AP98" t="s" s="30">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="99" ht="18.9" customHeight="1">
       <c r="B99" t="s" s="68">
         <f>IF(OR(AI99="ACTIVE",AI99="AVAILABLE",AI99="reserve",AI99="DNP"),G99,"")</f>
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C99" t="s" s="69">
         <f>$J99&amp;IF($F99="LED"," LED","")&amp;IF($L99="",""," ")&amp;$L99&amp;IF($K99="",""," ")&amp;$K99&amp;IF($M99="",""," ")&amp;$M99&amp;IF($N99="",""," ")&amp;$N99&amp;IF($O99="",""," ")&amp;$O99&amp;IF($R99="",""," ")&amp;$R99&amp;IF($R99="","","mcd")</f>
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D99" t="s" s="70">
         <f>$J99&amp;" "&amp;F99&amp;IF($L99="",""," ")&amp;$L99&amp;IF($K99="",""," ")&amp;$K99&amp;IF($M99="",""," ")&amp;$M99&amp;IF($N99="",""," ")&amp;$N99&amp;IF($O99="",""," ")&amp;$O99&amp;IF($R99="",""," ")&amp;$R99&amp;IF($R99="","","mcd")</f>
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E99" t="s" s="71">
         <f>IF(ISBLANK(AA99),"",HYPERLINK("https://jlcpcb.com/partdetail/"&amp;$AA99,$AA99))</f>
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F99" t="s" s="72">
         <v>797</v>
       </c>
       <c r="G99" t="s" s="73">
         <f>F99&amp;"_"&amp;L99&amp;"_"&amp;O99&amp;"_"&amp;Z99&amp;"_"&amp;J99</f>
+        <v>974</v>
+      </c>
+      <c r="H99" t="s" s="74">
         <v>975</v>
-      </c>
-      <c r="H99" t="s" s="74">
-        <v>976</v>
       </c>
       <c r="I99" t="s" s="72">
         <v>8</v>
       </c>
       <c r="J99" t="s" s="72">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K99" t="s" s="72">
         <v>800</v>
@@ -17481,13 +17478,13 @@
         <v>325</v>
       </c>
       <c r="AA99" t="s" s="72">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AB99" t="s" s="75">
         <v>829</v>
       </c>
       <c r="AC99" t="s" s="72">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AD99" t="b" s="76">
         <v>0</v>
@@ -17527,7 +17524,7 @@
         <v>3</v>
       </c>
       <c r="AP99" t="s" s="72">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="100" ht="31" customHeight="1">
